--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -800,7 +800,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|5.0.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -958,7 +958,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|5.0.0</t>
   </si>
   <si>
     <t>code</t>
@@ -1031,7 +1031,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -1154,7 +1154,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0)
 </t>
   </si>
   <si>
@@ -1225,7 +1225,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|5.0.0|RelatedPerson|5.0.0)
 </t>
   </si>
   <si>
@@ -1592,7 +1592,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1607,7 +1607,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="106.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>91</v>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2705,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -7419,12 +7419,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP48">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="390">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,22 +468,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.extension:age</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://testSK.org/StructureDefinition/patient-age-ext}
-</t>
-  </si>
-  <si>
-    <t>Patient Age (integer)</t>
-  </si>
-  <si>
-    <t>Patient age in years represented as an integer.</t>
   </si>
   <si>
     <t>Patient.extension:gender-sct</t>
@@ -1573,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP48"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2602,7 +2586,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -2720,7 +2704,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>91</v>
@@ -2825,46 +2809,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
       </c>
@@ -2912,7 +2898,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -2930,7 +2916,7 @@
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
@@ -2947,14 +2933,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2967,25 +2953,23 @@
         <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3034,7 +3018,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3046,22 +3030,22 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>20</v>
@@ -3069,10 +3053,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3083,34 +3067,38 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O13" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="R13" t="s" s="2">
         <v>20</v>
       </c>
@@ -3154,13 +3142,13 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -3169,19 +3157,19 @@
         <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>20</v>
@@ -3189,10 +3177,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3203,88 +3191,86 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q14" t="s" s="2">
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -3293,19 +3279,19 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3313,10 +3299,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3339,19 +3325,19 @@
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3400,7 +3386,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3418,16 +3404,16 @@
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3435,10 +3421,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3449,7 +3435,7 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -3461,19 +3447,19 @@
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3498,13 +3484,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3522,13 +3508,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -3540,16 +3526,16 @@
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3557,10 +3543,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3571,7 +3557,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3583,19 +3569,19 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3620,31 +3606,31 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3662,27 +3648,27 @@
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3699,25 +3685,25 @@
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3766,7 +3752,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3784,27 +3770,27 @@
         <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3815,31 +3801,31 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3888,13 +3874,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -3906,16 +3892,16 @@
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -3923,10 +3909,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3937,7 +3923,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3946,22 +3932,20 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3986,13 +3970,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4010,13 +3994,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -4028,16 +4012,16 @@
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4045,10 +4029,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4071,17 +4055,19 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4106,31 +4092,31 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4148,16 +4134,16 @@
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4165,10 +4151,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4179,7 +4165,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4191,19 +4177,19 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4252,13 +4238,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -4270,16 +4256,16 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4287,10 +4273,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4313,19 +4299,19 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4374,7 +4360,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4386,22 +4372,22 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4409,10 +4395,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4423,7 +4409,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4435,20 +4421,16 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4496,31 +4478,31 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4531,21 +4513,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4557,7 +4539,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>281</v>
@@ -4565,7 +4547,9 @@
       <c r="M25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4620,19 +4604,19 @@
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4649,14 +4633,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4669,10 +4653,10 @@
         <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>138</v>
@@ -4684,9 +4668,11 @@
         <v>287</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4752,7 +4738,7 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4776,7 +4762,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4789,25 +4775,23 @@
         <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4832,13 +4816,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4856,7 +4840,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4868,22 +4852,22 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -4891,10 +4875,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4905,7 +4889,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4917,17 +4901,17 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4952,13 +4936,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4976,16 +4960,16 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>103</v>
@@ -4994,16 +4978,16 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
@@ -5011,10 +4995,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5025,7 +5009,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5037,17 +5021,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5096,16 +5082,16 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>103</v>
@@ -5114,13 +5100,13 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>307</v>
@@ -5145,7 +5131,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5157,7 +5143,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>309</v>
@@ -5165,11 +5151,9 @@
       <c r="M30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5224,10 +5208,10 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>103</v>
@@ -5236,13 +5220,13 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>312</v>
@@ -5279,17 +5263,17 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5314,13 +5298,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5347,7 +5331,7 @@
         <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>103</v>
@@ -5356,16 +5340,16 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
@@ -5373,10 +5357,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5399,17 +5383,17 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5434,13 +5418,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5458,7 +5442,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5467,7 +5451,7 @@
         <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>103</v>
@@ -5476,16 +5460,16 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -5493,10 +5477,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5519,18 +5503,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>326</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5578,7 +5560,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5587,7 +5569,7 @@
         <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>103</v>
@@ -5596,16 +5578,16 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>20</v>
@@ -5627,7 +5609,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5639,16 +5621,20 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5702,7 +5688,7 @@
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -5714,13 +5700,13 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5731,10 +5717,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5745,7 +5731,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5757,20 +5743,16 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5818,31 +5800,31 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -5853,21 +5835,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5879,7 +5861,7 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>281</v>
@@ -5887,7 +5869,9 @@
       <c r="M36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5942,19 +5926,19 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -5971,14 +5955,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5991,10 +5975,10 @@
         <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>138</v>
@@ -6006,9 +5990,11 @@
         <v>287</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6074,7 +6060,7 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -6091,45 +6077,45 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>159</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>160</v>
+        <v>344</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6154,13 +6140,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6178,34 +6164,34 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6213,10 +6199,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6224,7 +6210,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -6239,19 +6225,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6276,13 +6262,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6300,10 +6286,10 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>91</v>
@@ -6318,16 +6304,16 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6335,21 +6321,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6361,20 +6347,18 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>173</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6422,13 +6406,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6440,16 +6424,16 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>359</v>
+        <v>177</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6457,21 +6441,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6480,21 +6464,23 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6542,13 +6528,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6560,16 +6546,16 @@
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>182</v>
+        <v>369</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -6577,10 +6563,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6591,31 +6577,31 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6664,13 +6650,13 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
@@ -6682,13 +6668,13 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>374</v>
+        <v>177</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6699,10 +6685,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6713,32 +6699,28 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6786,31 +6768,31 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>380</v>
+        <v>177</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6821,21 +6803,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6847,7 +6829,7 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>281</v>
@@ -6855,7 +6837,9 @@
       <c r="M44" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6910,19 +6894,19 @@
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6939,14 +6923,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6959,10 +6943,10 @@
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>138</v>
@@ -6974,9 +6958,11 @@
         <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7042,7 +7028,7 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -7059,46 +7045,44 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>291</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7146,34 +7130,34 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>20</v>
@@ -7207,17 +7191,15 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7242,13 +7224,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7284,141 +7266,23 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>168</v>
+        <v>389</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP48" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP48">
+  <autoFilter ref="A1:AP47">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7428,7 +7292,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-age-gender-snomed-profile.xlsx
+++ b/StructureDefinition-patient-age-gender-snomed-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
